--- a/SleepLabs/Data/voltageDistribution.xlsx
+++ b/SleepLabs/Data/voltageDistribution.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4154</v>
       </c>
     </row>
   </sheetData>
